--- a/xls/J-界面.xlsx
+++ b/xls/J-界面.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BFCBC989-21F9-4957-8592-26097EB8988A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{09FAFED3-4F45-42E5-9D07-2D42D315428A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,10 @@
   </si>
   <si>
     <t>LoadingForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginForm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -576,6 +580,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>100104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls/J-界面.xlsx
+++ b/xls/J-界面.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{09FAFED3-4F45-42E5-9D07-2D42D315428A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D8B55998-9621-4998-BE6D-2408DDEB5832}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,10 @@
   </si>
   <si>
     <t>LoginForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaunchForm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -514,13 +518,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>10101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -531,13 +535,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>100101</v>
+        <v>10101</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -548,10 +552,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>100102</v>
+        <v>100101</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -560,15 +564,15 @@
         <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>100103</v>
+        <v>100102</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -577,15 +581,15 @@
         <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>100104</v>
+        <v>100103</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -594,6 +598,23 @@
         <v>0</v>
       </c>
       <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>100104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
         <v>0</v>
       </c>
     </row>

--- a/xls/J-界面.xlsx
+++ b/xls/J-界面.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D8B55998-9621-4998-BE6D-2408DDEB5832}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DF0FB9EC-CFCA-49B8-AAAD-A7548BFCFB64}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,10 +92,6 @@
   </si>
   <si>
     <t>LoadingForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoginForm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -448,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -521,7 +517,7 @@
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -599,23 +595,6 @@
       </c>
       <c r="E8" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>100104</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/xls/J-界面.xlsx
+++ b/xls/J-界面.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DF0FB9EC-CFCA-49B8-AAAD-A7548BFCFB64}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{030F9E43-8EC5-426D-B2AA-6B68D417F17F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,10 @@
   </si>
   <si>
     <t>LaunchForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginForm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -597,6 +601,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>100104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls/J-界面.xlsx
+++ b/xls/J-界面.xlsx
@@ -1,113 +1,359 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{030F9E43-8EC5-426D-B2AA-6B68D417F17F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="@界面#UIForm" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>AssetName</t>
+  </si>
+  <si>
+    <t>UIGroupName</t>
+  </si>
+  <si>
+    <t>AllowMultiInstance</t>
+  </si>
+  <si>
+    <t>PauseCoveredUIForm</t>
+  </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
   <si>
     <t>唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>资源名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AssetName</t>
-  </si>
-  <si>
-    <t>UIGroupName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllowMultiInstance</t>
-  </si>
-  <si>
-    <t>PauseCoveredUIForm</t>
   </si>
   <si>
     <t>界面组名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否允许多个实例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否暂停被其覆盖的其他界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MenuForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AboutForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DialogForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Dialog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoadingForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LaunchForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoginForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I</t>
+    </r>
+  </si>
+  <si>
+    <t>MainUI</t>
+  </si>
+  <si>
+    <t>UGame/PlayPiano/Res/UI/PlayPianoSelectSongForm</t>
+  </si>
+  <si>
+    <t>UGame/PlayPiano/Res/UI/PlayPianoMainForm</t>
+  </si>
+  <si>
+    <t>UGame/PlayLook/Res/UI/PlayLookMainForm</t>
+  </si>
+  <si>
+    <t>UGame/PlayLook/Res/UI/PlayLookFailForm</t>
+  </si>
+  <si>
+    <t>UGame/PlayVideo/Res/UI/PlayVideoForm</t>
+  </si>
+  <si>
+    <t>UGame/PlayMole/Res/UI/PlayMoleMainForm</t>
+  </si>
+  <si>
+    <t>UGame/PlayMole/Res/UI/PlayMoleCountDownForm</t>
+  </si>
+  <si>
+    <t>UGame/PlayMole/Res/UI/PlayMoleSelectWordForm</t>
+  </si>
+  <si>
+    <t>UGame/PlayMole/Res/UI/PlayMoleEndForm</t>
+  </si>
+  <si>
+    <t>UGame/PlayMatchUp/Res/UI/PlayMatchUpMainForm</t>
+  </si>
+  <si>
+    <t>UGame/PlayColorIt/Res/UI/PlayColorItMainForm</t>
+  </si>
+  <si>
+    <t>UGame/PlayColorIt/Res/UI/PlayColorItPictureForm</t>
+  </si>
+  <si>
+    <t>UGame/Common/UIForms/LaunchForm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGame/Common/UIForms//DialogForm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGame/Common/UIForms/LoadingForm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGame/Common/UIForms/LoginForm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGame/Common/UIForms/SelectGradeForm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGame/Common/UIForms/SelectMonthForm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGame/Common/UIForms/SelectCategoryForm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGame/Common/UIForms/SelectContentForm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGame/Common/UIForms/CommonVictoryForm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UGame/Common/UIForms/CommonCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Form</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGame/PlayAssemble/Res/UI/PlayAssembleMainForm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UGame/Common/UIForms/CommonGuide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Form</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guide</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UGame/Common/UIForms/CommonDia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>logForm</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialog</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UGame/Common/UIForms/CommonSetting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Form</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGame/PlayAssemble/Res/UI/PlayAssemblePlayVideoForm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UGame/Common/UIForms/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SelectModuleForm</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainUI</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGame/PlayAssemble/Res/UI/PlayAssembleAnimTipsForm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ugame/PlayPaint/Res/UI/PlayPaintMainForm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +363,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -132,7 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.39985351115451523"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,16 +400,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -164,10 +417,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -228,7 +488,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -263,7 +523,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -438,26 +698,21 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="72.375" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="27.25" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
@@ -465,66 +720,66 @@
     <col min="8" max="8" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>100</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
+        <v>100101</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -533,29 +788,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
-        <v>10101</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
+        <v>100102</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
-        <v>100101</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
+        <v>100103</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -564,35 +819,35 @@
         <v>0</v>
       </c>
       <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>100104</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>100102</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
-        <v>100103</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
+        <v>100105</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -601,15 +856,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
-        <v>100104</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
+        <v>100106</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -618,9 +873,417 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>100107</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>100108</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>100109</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>100110</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>100111</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>100112</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>100113</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>100114</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>100201</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>100202</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>100301</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>100302</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>100401</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>100501</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>100502</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>100503</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>100504</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>100601</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>100701</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>100702</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>100801</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1">
+      <c r="A31">
+        <v>100802</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1">
+      <c r="A32">
+        <v>100803</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>100804</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>